--- a/DAT 690 Capstone in Data Analytics/Assignments/Project/Data/Churn Data Descriptions.xlsx
+++ b/DAT 690 Capstone in Data Analytics/Assignments/Project/Data/Churn Data Descriptions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="201">
   <si>
     <t xml:space="preserve">Database Documentation</t>
   </si>
@@ -208,7 +208,7 @@
     <t xml:space="preserve">Months in Service</t>
   </si>
   <si>
-    <t xml:space="preserve"># of months the customer has had service. Number of individuals listed with the account.</t>
+    <t xml:space="preserve"># of months the customer has had service.</t>
   </si>
   <si>
     <t xml:space="preserve">UNIQSUBS</t>
@@ -217,13 +217,16 @@
     <t xml:space="preserve">Number of Uniq Subs</t>
   </si>
   <si>
+    <t xml:space="preserve">Number of individuals listed with the account.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ACTVSUBS</t>
   </si>
   <si>
     <t xml:space="preserve">Number of Active Subs</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of individuals listed with the account who actively use the service. Location of the customer within the US.</t>
+    <t xml:space="preserve">Number of individuals listed with the account who actively use the service.</t>
   </si>
   <si>
     <t xml:space="preserve">CSA</t>
@@ -233,6 +236,9 @@
   </si>
   <si>
     <t xml:space="preserve">dem other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location of the customer within the US.</t>
   </si>
   <si>
     <t xml:space="preserve">PHONES</t>
@@ -626,7 +632,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -656,6 +662,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -700,7 +712,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -710,6 +722,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -736,11 +752,11 @@
   </sheetPr>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="63.29"/>
@@ -1139,22 +1155,25 @@
       <c r="D28" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="E28" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,13 +1181,16 @@
         <v>26</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,13 +1198,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,13 +1212,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1204,13 +1226,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,13 +1240,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,13 +1254,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,13 +1268,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,13 +1282,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1274,13 +1296,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1288,13 +1310,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C39" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1302,13 +1324,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1316,13 +1338,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,13 +1352,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,13 +1366,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1358,13 +1380,13 @@
         <v>40</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,16 +1394,16 @@
         <v>41</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,16 +1411,16 @@
         <v>42</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1406,13 +1428,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,13 +1442,13 @@
         <v>44</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,16 +1456,16 @@
         <v>45</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,13 +1473,13 @@
         <v>46</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,13 +1487,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,13 +1501,13 @@
         <v>48</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,13 +1515,13 @@
         <v>49</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,13 +1529,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,13 +1543,13 @@
         <v>51</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,13 +1557,13 @@
         <v>52</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,13 +1571,13 @@
         <v>53</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,13 +1585,13 @@
         <v>54</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,13 +1599,13 @@
         <v>55</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,13 +1613,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,16 +1627,16 @@
         <v>57</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1622,13 +1644,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,13 +1658,13 @@
         <v>59</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1650,13 +1672,13 @@
         <v>60</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1664,13 +1686,13 @@
         <v>61</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,13 +1700,13 @@
         <v>62</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,16 +1714,16 @@
         <v>63</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,13 +1731,13 @@
         <v>64</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>104</v>
+        <v>156</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,10 +1745,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>18</v>
@@ -1737,10 +1759,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>18</v>
@@ -1751,10 +1773,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>18</v>
@@ -1765,13 +1787,13 @@
         <v>68</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,13 +1801,13 @@
         <v>69</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1793,13 +1815,13 @@
         <v>70</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1807,10 +1829,10 @@
         <v>71</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>18</v>
@@ -1821,10 +1843,10 @@
         <v>72</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>18</v>
@@ -1835,10 +1857,10 @@
         <v>73</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>12</v>
@@ -1849,10 +1871,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>12</v>
@@ -1863,10 +1885,10 @@
         <v>75</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>18</v>
@@ -1877,13 +1899,13 @@
         <v>76</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1891,13 +1913,13 @@
         <v>77</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1905,13 +1927,13 @@
         <v>78</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1919,13 +1941,13 @@
         <v>79</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1933,13 +1955,13 @@
         <v>80</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1947,13 +1969,13 @@
         <v>81</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1961,16 +1983,16 @@
         <v>82</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>18</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,16 +2000,16 @@
         <v>83</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1995,16 +2017,16 @@
         <v>84</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
